--- a/input/images/mCODEDataDictionary-STU2-vs-STU2.1.xlsx
+++ b/input/images/mCODEDataDictionary-STU2-vs-STU2.1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9B05AB5-EDF8-1F40-9862-2EE0B52C5EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB0D6A6-CFA1-A041-8FC5-20A4885EC039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="28300" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="154">
   <si>
     <t/>
   </si>
@@ -934,6 +934,12 @@
   </si>
   <si>
     <t>mCODE STU2.1 (2.1.0)</t>
+  </si>
+  <si>
+    <t>Bowel space (observable entity)</t>
+  </si>
+  <si>
+    <t>Small bowel space (observable entity)</t>
   </si>
 </sst>
 </file>
@@ -4227,7 +4233,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4329,7 +4335,7 @@
         <v>55</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="19" customFormat="1">
@@ -4344,7 +4350,7 @@
         <v>57</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="19" customFormat="1">
